--- a/Ideas/VisionPattern.xlsx
+++ b/Ideas/VisionPattern.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antec\Documents\Involved\DungeonEscape\Ideas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ACF9D8-0671-4610-A214-C672F5DCC388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1786DDB8-2B32-4ECD-8D3F-9E9848BAF874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{037D2077-8C68-4C43-83EE-70D05E938AD4}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>Expected</t>
   </si>
@@ -198,6 +199,78 @@
   </si>
   <si>
     <t>Find center and - all vectors by it</t>
+  </si>
+  <si>
+    <t>10.10</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>11.10</t>
+  </si>
+  <si>
+    <t>12.10</t>
+  </si>
+  <si>
+    <t>12.9</t>
+  </si>
+  <si>
+    <t>12.11</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>9.10</t>
+  </si>
+  <si>
+    <t>8.10</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>.-1_-2</t>
+  </si>
+  <si>
+    <t>.-1_-3</t>
+  </si>
+  <si>
+    <t>.-2_-3</t>
+  </si>
+  <si>
+    <t>.-1,-1</t>
+  </si>
+  <si>
+    <t>.-2,-1</t>
+  </si>
+  <si>
+    <t>.-2,-2</t>
+  </si>
+  <si>
+    <t>.-3-1</t>
+  </si>
+  <si>
+    <t>.-3,-2</t>
+  </si>
+  <si>
+    <t>.-3,-3</t>
   </si>
 </sst>
 </file>
@@ -334,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -369,6 +442,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,15 +766,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C77A081-5E16-4624-9A70-CEEAAC8DB2B1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AH26"/>
+  <dimension ref="B1:BA26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AK15" sqref="AK15"/>
+      <selection activeCell="AP22" sqref="AP22:AV22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:34" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
@@ -726,7 +808,7 @@
       <c r="AG1" s="25"/>
       <c r="AH1" s="25"/>
     </row>
-    <row r="2" spans="2:34" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="14">
         <v>9</v>
       </c>
@@ -742,10 +824,10 @@
       <c r="F2" s="4">
         <v>13</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>9</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="12">
         <v>10</v>
       </c>
       <c r="J2" s="12">
@@ -803,7 +885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:34" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="15">
         <v>24</v>
       </c>
@@ -819,10 +901,10 @@
       <c r="F3" s="6">
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>24</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" s="11">
@@ -880,7 +962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:34" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5">
         <v>23</v>
       </c>
@@ -896,10 +978,10 @@
       <c r="F4" s="6">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>23</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4">
         <v>8</v>
       </c>
       <c r="J4">
@@ -957,7 +1039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:34" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>22</v>
       </c>
@@ -973,10 +1055,10 @@
       <c r="F5" s="6">
         <v>16</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>22</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5">
         <v>7</v>
       </c>
       <c r="J5">
@@ -1034,7 +1116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:34" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7">
         <v>21</v>
       </c>
@@ -1050,10 +1132,10 @@
       <c r="F6" s="9">
         <v>17</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <v>21</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <v>20</v>
       </c>
       <c r="J6" s="8">
@@ -1111,7 +1193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:34" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <v>9</v>
       </c>
@@ -1180,7 +1262,7 @@
       <c r="AG8" s="25"/>
       <c r="AH8" s="25"/>
     </row>
-    <row r="9" spans="2:34" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5">
         <v>24</v>
       </c>
@@ -1257,7 +1339,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:34" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5">
         <v>23</v>
       </c>
@@ -1334,7 +1416,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:34" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>22</v>
       </c>
@@ -1410,8 +1492,34 @@
       <c r="AH11" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="AP11" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ11" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR11" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS11" s="34">
+        <v>28</v>
+      </c>
+      <c r="AT11" s="34">
+        <v>29</v>
+      </c>
+      <c r="AU11" s="34">
+        <v>30</v>
+      </c>
+      <c r="AV11" s="35">
+        <v>31</v>
+      </c>
+      <c r="AW11" s="30"/>
+      <c r="AX11" s="30"/>
+      <c r="AY11" s="30"/>
+      <c r="AZ11" s="30"/>
+      <c r="BA11" s="30"/>
     </row>
-    <row r="12" spans="2:34" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <v>21</v>
       </c>
@@ -1487,8 +1595,34 @@
       <c r="AH12" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="AP12" s="29">
+        <v>48</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV12" s="28">
+        <v>32</v>
+      </c>
+      <c r="AW12" s="30"/>
+      <c r="AX12" s="30"/>
+      <c r="AY12" s="30"/>
+      <c r="AZ12" s="30"/>
+      <c r="BA12" s="30"/>
     </row>
-    <row r="13" spans="2:34" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AD13" s="7" t="s">
         <v>32</v>
       </c>
@@ -1504,8 +1638,34 @@
       <c r="AH13" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="AP13" s="29">
+        <v>47</v>
+      </c>
+      <c r="AQ13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV13" s="28">
+        <v>33</v>
+      </c>
+      <c r="AW13" s="30"/>
+      <c r="AX13" s="30"/>
+      <c r="AY13" s="30"/>
+      <c r="AZ13" s="30"/>
+      <c r="BA13" s="30"/>
     </row>
-    <row r="14" spans="2:34" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AD14" s="26" t="s">
         <v>53</v>
       </c>
@@ -1513,8 +1673,34 @@
       <c r="AF14" s="26"/>
       <c r="AG14" s="26"/>
       <c r="AH14" s="26"/>
+      <c r="AP14" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV14" s="28">
+        <v>34</v>
+      </c>
+      <c r="AW14" s="30"/>
+      <c r="AX14" s="30"/>
+      <c r="AY14" s="30"/>
+      <c r="AZ14" s="30"/>
+      <c r="BA14" s="30"/>
     </row>
-    <row r="15" spans="2:34" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="25" t="s">
         <v>1</v>
       </c>
@@ -1545,8 +1731,34 @@
       <c r="AF15" s="27"/>
       <c r="AG15" s="27"/>
       <c r="AH15" s="27"/>
+      <c r="AP15" s="29">
+        <v>45</v>
+      </c>
+      <c r="AQ15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV15" s="28">
+        <v>35</v>
+      </c>
+      <c r="AW15" s="30"/>
+      <c r="AX15" s="30"/>
+      <c r="AY15" s="30"/>
+      <c r="AZ15" s="30"/>
+      <c r="BA15" s="30"/>
     </row>
-    <row r="16" spans="2:34" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16">
         <v>9</v>
       </c>
@@ -1607,8 +1819,34 @@
       <c r="X16" s="4">
         <v>13</v>
       </c>
+      <c r="AP16" s="29">
+        <v>44</v>
+      </c>
+      <c r="AQ16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV16" s="28">
+        <v>36</v>
+      </c>
+      <c r="AW16" s="30"/>
+      <c r="AX16" s="30"/>
+      <c r="AY16" s="30"/>
+      <c r="AZ16" s="30"/>
+      <c r="BA16" s="30"/>
     </row>
-    <row r="17" spans="2:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
         <v>24</v>
       </c>
@@ -1669,8 +1907,34 @@
       <c r="X17" s="6">
         <v>14</v>
       </c>
+      <c r="AP17" s="36">
+        <v>43</v>
+      </c>
+      <c r="AQ17" s="31">
+        <v>42</v>
+      </c>
+      <c r="AR17" s="31">
+        <v>41</v>
+      </c>
+      <c r="AS17" s="31">
+        <v>40</v>
+      </c>
+      <c r="AT17" s="31">
+        <v>39</v>
+      </c>
+      <c r="AU17" s="31">
+        <v>38</v>
+      </c>
+      <c r="AV17" s="32">
+        <v>37</v>
+      </c>
+      <c r="AW17" s="30"/>
+      <c r="AX17" s="30"/>
+      <c r="AY17" s="30"/>
+      <c r="AZ17" s="30"/>
+      <c r="BA17" s="30"/>
     </row>
-    <row r="18" spans="2:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5">
         <v>23</v>
       </c>
@@ -1731,8 +1995,20 @@
       <c r="X18" s="20">
         <v>15</v>
       </c>
+      <c r="AP18" s="30"/>
+      <c r="AQ18" s="30"/>
+      <c r="AR18" s="30"/>
+      <c r="AS18" s="30"/>
+      <c r="AT18" s="30"/>
+      <c r="AU18" s="30"/>
+      <c r="AV18" s="30"/>
+      <c r="AW18" s="30"/>
+      <c r="AX18" s="30"/>
+      <c r="AY18" s="30"/>
+      <c r="AZ18" s="30"/>
+      <c r="BA18" s="30"/>
     </row>
-    <row r="19" spans="2:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
         <v>22</v>
       </c>
@@ -1793,8 +2069,34 @@
       <c r="X19" s="6">
         <v>16</v>
       </c>
+      <c r="AP19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS19" s="34">
+        <v>28</v>
+      </c>
+      <c r="AT19" s="34">
+        <v>29</v>
+      </c>
+      <c r="AU19" s="34">
+        <v>30</v>
+      </c>
+      <c r="AV19" s="35">
+        <v>31</v>
+      </c>
+      <c r="AW19" s="30"/>
+      <c r="AX19" s="30"/>
+      <c r="AY19" s="30"/>
+      <c r="AZ19" s="30"/>
+      <c r="BA19" s="30"/>
     </row>
-    <row r="20" spans="2:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="7">
         <v>21</v>
       </c>
@@ -1855,8 +2157,62 @@
       <c r="X20" s="9">
         <v>17</v>
       </c>
+      <c r="AP20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV20" s="28">
+        <v>32</v>
+      </c>
+      <c r="AW20" s="30"/>
+      <c r="AX20" s="30"/>
+      <c r="AY20" s="30"/>
+      <c r="AZ20" s="30"/>
+      <c r="BA20" s="30"/>
     </row>
-    <row r="22" spans="2:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AP21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV21" s="28">
+        <v>33</v>
+      </c>
+      <c r="AW21" s="30"/>
+      <c r="AX21" s="30"/>
+      <c r="AY21" s="30"/>
+      <c r="AZ21" s="30"/>
+      <c r="BA21" s="30"/>
+    </row>
+    <row r="22" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <v>9</v>
       </c>
@@ -1917,8 +2273,34 @@
       <c r="X22" s="4">
         <v>13</v>
       </c>
+      <c r="AP22" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV22" s="28">
+        <v>34</v>
+      </c>
+      <c r="AW22" s="30"/>
+      <c r="AX22" s="30"/>
+      <c r="AY22" s="30"/>
+      <c r="AZ22" s="30"/>
+      <c r="BA22" s="30"/>
     </row>
-    <row r="23" spans="2:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
         <v>24</v>
       </c>
@@ -1979,8 +2361,29 @@
       <c r="X23" s="6">
         <v>14</v>
       </c>
+      <c r="AP23" s="29">
+        <v>45</v>
+      </c>
+      <c r="AQ23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV23" s="28">
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="2:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="5">
         <v>23</v>
       </c>
@@ -2041,8 +2444,29 @@
       <c r="X24" s="6">
         <v>15</v>
       </c>
+      <c r="AP24" s="29">
+        <v>44</v>
+      </c>
+      <c r="AQ24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV24" s="28">
+        <v>36</v>
+      </c>
     </row>
-    <row r="25" spans="2:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
         <v>22</v>
       </c>
@@ -2103,8 +2527,29 @@
       <c r="X25" s="6">
         <v>16</v>
       </c>
+      <c r="AP25" s="36">
+        <v>43</v>
+      </c>
+      <c r="AQ25" s="31">
+        <v>42</v>
+      </c>
+      <c r="AR25" s="31">
+        <v>41</v>
+      </c>
+      <c r="AS25" s="31">
+        <v>40</v>
+      </c>
+      <c r="AT25" s="31">
+        <v>39</v>
+      </c>
+      <c r="AU25" s="31">
+        <v>38</v>
+      </c>
+      <c r="AV25" s="32">
+        <v>37</v>
+      </c>
     </row>
-    <row r="26" spans="2:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:53" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="7">
         <v>21</v>
       </c>
